--- a/2010/hacking/FamaFrench/data/output/spreadsheets/dfvex_regression.xlsx
+++ b/2010/hacking/FamaFrench/data/output/spreadsheets/dfvex_regression.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="14355" windowHeight="6720"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21075" windowHeight="11820"/>
   </bookViews>
   <sheets>
-    <sheet name="dfvex_regression" sheetId="1" r:id="rId1"/>
+    <sheet name="DFVEX_regression" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -19,7 +19,7 @@
     <t>Month</t>
   </si>
   <si>
-    <t>dfvex adjusted close</t>
+    <t>DFVEX adjusted close</t>
   </si>
   <si>
     <t>Return</t>
@@ -290,7 +290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +422,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -796,14 +804,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -1157,35 +1171,43 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1295,10 +1317,10 @@
       <c r="I5">
         <v>0.43</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1325,10 +1347,10 @@
       <c r="I6">
         <v>0.4</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>0.99601987307764983</v>
       </c>
     </row>
@@ -1357,10 +1379,10 @@
       <c r="I7">
         <v>0.4</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>0.99205558756561774</v>
       </c>
     </row>
@@ -1389,10 +1411,10 @@
       <c r="I8">
         <v>0.42</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="3">
         <v>0.99161423131926318</v>
       </c>
     </row>
@@ -1421,10 +1443,10 @@
       <c r="I9">
         <v>0.41</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="3">
         <v>0.59337738727210321</v>
       </c>
     </row>
@@ -1453,10 +1475,10 @@
       <c r="I10">
         <v>0.41</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="4">
         <v>58</v>
       </c>
     </row>
@@ -1540,20 +1562,20 @@
       <c r="I13">
         <v>0.44</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="5" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1582,22 +1604,22 @@
       <c r="I14">
         <v>0.38</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="3">
         <v>3</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="3">
         <v>2374.2692554203554</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="3">
         <v>791.42308514011847</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="3">
         <v>2247.7433949550118</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="3">
         <v>1.1860242952333387E-56</v>
       </c>
     </row>
@@ -1626,20 +1648,20 @@
       <c r="I15">
         <v>0.43</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="3">
         <v>54</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="3">
         <v>19.013223081196848</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="3">
         <v>0.35209672372586759</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1666,18 +1688,18 @@
       <c r="I16">
         <v>0.44</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="4">
         <v>57</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="4">
         <v>2393.2824785015523</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1730,29 +1752,29 @@
       <c r="I18">
         <v>0.4</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="R18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="S18" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1781,31 +1803,31 @@
       <c r="I19">
         <v>0.4</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="3">
         <v>-0.1633039853697576</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="3">
         <v>7.8469399943860499E-2</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="3">
         <v>-2.0811167854805879</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="3">
         <v>4.2179746513788793E-2</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="3">
         <v>-0.32062566007374865</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="3">
         <v>-5.9823106657665437E-3</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="3">
         <v>-0.32062566007374865</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="3">
         <v>-5.9823106657665437E-3</v>
       </c>
     </row>
@@ -1834,31 +1856,31 @@
       <c r="I20">
         <v>0.42</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="3">
         <v>1.0026221395978026</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="3">
         <v>1.6719892488891334E-2</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="3">
         <v>59.965824556823129</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="3">
         <v>4.264793783729961E-51</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="3">
         <v>0.96910077344609324</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="3">
         <v>1.0361435057495119</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="3">
         <v>0.96910077344609324</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="3">
         <v>1.0361435057495119</v>
       </c>
     </row>
@@ -1887,31 +1909,31 @@
       <c r="I21">
         <v>0.32</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="3">
         <v>0.51258661053460197</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="3">
         <v>3.5659299379301811E-2</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="3">
         <v>14.374556411843843</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="3">
         <v>4.2093248237123063E-20</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="3">
         <v>0.44109401977774254</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="3">
         <v>0.5840792012914614</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="3">
         <v>0.44109401977774254</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="3">
         <v>0.5840792012914614</v>
       </c>
     </row>
@@ -1940,31 +1962,31 @@
       <c r="I22">
         <v>0.32</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="4">
         <v>0.28305498719536681</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="4">
         <v>2.9414069110470727E-2</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="4">
         <v>9.6231155958835295</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="4">
         <v>2.616628150482337E-13</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="4">
         <v>0.22408332925445193</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="4">
         <v>0.34202664513628167</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="4">
         <v>0.22408332925445193</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="4">
         <v>0.34202664513628167</v>
       </c>
     </row>
